--- a/public/files/salesData.xlsx
+++ b/public/files/salesData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\dmt\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanjay\Projects\dmt\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CE7610-1366-4233-A10E-5EBC561869B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE48A5-5554-4711-9825-64895A792D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{E0F4AD7E-6084-438F-B5C7-0691A19206BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E0F4AD7E-6084-438F-B5C7-0691A19206BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>SKU Code</t>
   </si>
   <si>
     <t>T-2 month 
@@ -64,15 +67,6 @@
   <si>
     <t>T month 
 Offline Mass</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
 </sst>
 </file>
@@ -139,13 +133,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,135 +456,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53716F5-64BB-44B3-991E-2B39165C72BA}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>13637</v>
       </c>
-      <c r="C2" s="3">
-        <v>24886</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44262</v>
-      </c>
-      <c r="E2" s="3">
-        <v>13954</v>
-      </c>
-      <c r="F2" s="3">
-        <v>18520</v>
-      </c>
-      <c r="G2" s="3">
-        <v>40547</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="C2" s="2">
         <v>49876</v>
       </c>
-      <c r="I2" s="3">
+      <c r="D2" s="2">
         <v>20607</v>
       </c>
-      <c r="J2" s="3">
+      <c r="E2" s="2">
         <v>29312</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2023</v>
+      <c r="F2" s="2">
+        <v>49876</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20607</v>
+      </c>
+      <c r="H2" s="2">
+        <v>29312</v>
+      </c>
+      <c r="I2" s="2">
+        <v>49876</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20607</v>
+      </c>
+      <c r="K2" s="2">
+        <v>29312</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>25896</v>
       </c>
-      <c r="C3" s="3">
-        <v>37312</v>
-      </c>
-      <c r="D3" s="3">
-        <v>27824</v>
-      </c>
-      <c r="E3" s="3">
-        <v>46064</v>
-      </c>
-      <c r="F3" s="3">
-        <v>28578</v>
-      </c>
-      <c r="G3" s="3">
-        <v>42163</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="C3" s="2">
         <v>47881</v>
       </c>
-      <c r="I3" s="3">
+      <c r="D3" s="2">
         <v>36874</v>
       </c>
-      <c r="J3" s="3">
+      <c r="E3" s="2">
         <v>18946</v>
       </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>6</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2023</v>
+      <c r="F3" s="2">
+        <v>47881</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36874</v>
+      </c>
+      <c r="H3" s="2">
+        <v>18946</v>
+      </c>
+      <c r="I3" s="2">
+        <v>47881</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36874</v>
+      </c>
+      <c r="K3" s="2">
+        <v>18946</v>
       </c>
     </row>
   </sheetData>
